--- a/data/input_operation/OperationScenario_Component_Behavior.xlsx
+++ b/data/input_operation/OperationScenario_Component_Behavior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14660"/>
+    <workbookView windowWidth="28000" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Behavior" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <t>°C</t>
   </si>
   <si>
-    <t>Wh</t>
+    <t>Wh/person</t>
   </si>
 </sst>
 </file>
@@ -72,12 +72,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -85,21 +85,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,130 +152,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,187 +244,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,11 +438,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,21 +516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -496,201 +530,162 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1036,8 +1031,8 @@
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -1132,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2000000</v>
+        <v>666666.666666667</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -1141,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>4000000</v>
+        <v>1333333.33333333</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>

--- a/data/input_operation/OperationScenario_Component_Behavior.xlsx
+++ b/data/input_operation/OperationScenario_Component_Behavior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="14660"/>
+    <workbookView windowHeight="18400"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Behavior" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>ID_Behavior</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>target_temperature_not_at_home_min</t>
+  </si>
+  <si>
+    <t>shading_solar_reduction_rate</t>
+  </si>
+  <si>
+    <t>shading_threshold_temperature</t>
   </si>
   <si>
     <t>temperature_unit</t>
@@ -72,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -91,30 +97,137 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,113 +240,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -244,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,17 +444,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,11 +462,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,17 +507,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,144 +527,150 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -673,10 +679,10 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,24 +754,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0">
-  <autoFilter ref="A1:O2"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q2" totalsRowShown="0">
+  <autoFilter ref="A1:Q2"/>
+  <tableColumns count="17">
     <tableColumn id="1" name="ID_Behavior"/>
     <tableColumn id="2" name="id_people_at_home_profile"/>
     <tableColumn id="3" name="target_temperature_at_home_max"/>
     <tableColumn id="4" name="target_temperature_at_home_min"/>
     <tableColumn id="5" name="target_temperature_not_at_home_max"/>
     <tableColumn id="6" name="target_temperature_not_at_home_min"/>
-    <tableColumn id="7" name="temperature_unit"/>
-    <tableColumn id="8" name="id_hot_water_demand_profile"/>
-    <tableColumn id="9" name="hot_water_demand_annual"/>
-    <tableColumn id="10" name="hot_water_demand_unit"/>
-    <tableColumn id="11" name="id_appliance_electricity_demand_profile"/>
-    <tableColumn id="12" name="appliance_electricity_demand_annual"/>
-    <tableColumn id="13" name="appliance_electricity_demand_unit"/>
-    <tableColumn id="14" name="id_vehicle_at_home_profile"/>
-    <tableColumn id="15" name="id_vehicle_distance_profile"/>
+    <tableColumn id="7" name="shading_solar_reduction_rate"/>
+    <tableColumn id="8" name="shading_threshold_temperature"/>
+    <tableColumn id="9" name="temperature_unit"/>
+    <tableColumn id="10" name="id_hot_water_demand_profile"/>
+    <tableColumn id="11" name="hot_water_demand_annual"/>
+    <tableColumn id="12" name="hot_water_demand_unit"/>
+    <tableColumn id="13" name="id_appliance_electricity_demand_profile"/>
+    <tableColumn id="14" name="appliance_electricity_demand_annual"/>
+    <tableColumn id="15" name="appliance_electricity_demand_unit"/>
+    <tableColumn id="16" name="id_vehicle_at_home_profile"/>
+    <tableColumn id="17" name="id_vehicle_distance_profile"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1029,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -1043,18 +1051,20 @@
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="38.2890625" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="30.2890625" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
-    <col min="11" max="11" width="39.5703125" customWidth="1"/>
-    <col min="12" max="12" width="36.859375" customWidth="1"/>
-    <col min="13" max="13" width="34.4296875" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" customWidth="1"/>
-    <col min="15" max="15" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.515625" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="30.2890625" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" customWidth="1"/>
+    <col min="13" max="13" width="39.5703125" customWidth="1"/>
+    <col min="14" max="14" width="36.859375" customWidth="1"/>
+    <col min="15" max="15" width="34.4296875" customWidth="1"/>
+    <col min="16" max="16" width="28.140625" customWidth="1"/>
+    <col min="17" max="17" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,25 +1083,25 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -1100,8 +1110,14 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1120,31 +1136,37 @@
       <c r="F2">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
+      <c r="G2">
+        <v>0.5</v>
       </c>
       <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>666666.666666667</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2">
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>1333333.33333333</v>
       </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2">
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>1</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_Behavior.xlsx
+++ b/data/input_operation/OperationScenario_Component_Behavior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18400"/>
+    <workbookView windowWidth="27860" windowHeight="14260"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Behavior" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -104,38 +104,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,11 +220,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,83 +238,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -256,13 +256,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,163 +412,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,11 +444,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,17 +483,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,15 +518,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -527,159 +527,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1039,8 +1039,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -1051,7 +1051,7 @@
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="38.2890625" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="7" width="25.515625" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
     <col min="8" max="8" width="38" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="30.2890625" customWidth="1"/>

--- a/data/input_operation/OperationScenario_Component_Behavior.xlsx
+++ b/data/input_operation/OperationScenario_Component_Behavior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27860" windowHeight="14260"/>
+    <workbookView windowHeight="18400"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Behavior" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -101,6 +101,21 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,12 +137,43 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -135,6 +181,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -143,40 +219,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,29 +228,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,27 +240,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -256,181 +256,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,9 +485,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,11 +520,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,142 +544,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>666666.666666667</v>
+        <v>500000</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>1333333.33333333</v>
+        <v>999999.999999997</v>
       </c>
       <c r="O2" t="s">
         <v>18</v>

--- a/data/input_operation/OperationScenario_Component_Behavior.xlsx
+++ b/data/input_operation/OperationScenario_Component_Behavior.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC77AFA3-418F-48CF-9D9C-2D08B6E6206E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864E028-3537-4DFA-88F6-C5883D87BD0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Beh" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -916,14 +916,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>

--- a/data/input_operation/OperationScenario_Component_Behavior.xlsx
+++ b/data/input_operation/OperationScenario_Component_Behavior.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864E028-3537-4DFA-88F6-C5883D87BD0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B43D50-7A7E-455A-8C23-347FF4440A87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Beh" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -920,7 +920,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/input_operation/OperationScenario_Component_Behavior.xlsx
+++ b/data/input_operation/OperationScenario_Component_Behavior.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC77AFA3-418F-48CF-9D9C-2D08B6E6206E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A22BFFF-5E27-AC4C-A8E2-463F71262136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="-3480" yWindow="-20080" windowWidth="25340" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Beh" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>ID_Behavior</t>
   </si>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -564,48 +564,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -621,7 +621,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -916,14 +916,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -990,10 +1002,10 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>0.5</v>
@@ -1008,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>500000</v>
+        <v>490700</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
@@ -1017,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>1000000</v>
+        <v>1298746.816666668</v>
       </c>
       <c r="O2" t="s">
         <v>18</v>
@@ -1026,6 +1038,112 @@
         <v>1</v>
       </c>
       <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>490700</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>1368629.9833333339</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>490700</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>1423140.6500000004</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>1</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_Behavior.xlsx
+++ b/data/input_operation/OperationScenario_Component_Behavior.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevanskorna/PycharmProjects/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A22BFFF-5E27-AC4C-A8E2-463F71262136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22352C2F-8E7D-BE42-BCC6-CC7F36B08853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3480" yWindow="-20080" windowWidth="25340" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1300" yWindow="-19800" windowWidth="25340" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Beh" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>ID_Behavior</t>
   </si>
@@ -83,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +227,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -560,8 +580,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -933,6 +954,7 @@
     <col min="10" max="10" width="24.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -1094,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1144,6 +1166,336 @@
         <v>1</v>
       </c>
       <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f>1090600/2</f>
+        <v>545300</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <f>2403236.95/2</f>
+        <v>1201618.4750000001</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f>1090600/2</f>
+        <v>545300</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <f>2539809.95/2</f>
+        <v>1269904.9750000001</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <f>1090600/2</f>
+        <v>545300</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <f>2648781.78333334/2</f>
+        <v>1324390.8916666701</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1">
+        <f>1871800/4</f>
+        <v>467950</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <f>3114707.48333332/4</f>
+        <v>778676.87083332997</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" ref="K9:K10" si="0">1871800/4</f>
+        <v>467950</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <f>3324475.48333331/4</f>
+        <v>831118.87083332753</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>467950</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <f>3549490.98333333/4</f>
+        <v>887372.74583333253</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
         <v>1</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_Behavior.xlsx
+++ b/data/input_operation/OperationScenario_Component_Behavior.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevanskorna/PycharmProjects/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22352C2F-8E7D-BE42-BCC6-CC7F36B08853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FC7848-2AD1-534E-9772-C27B30BE48B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1300" yWindow="-19800" windowWidth="25340" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10840" yWindow="-19540" windowWidth="25340" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Beh" sheetId="1" r:id="rId1"/>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>490700</v>
+        <v>448000</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>1298746.816666668</v>
+        <v>1230954.866666666</v>
       </c>
       <c r="O2" t="s">
         <v>18</v>
@@ -1095,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="K3">
-        <v>490700</v>
+        <v>448000</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
@@ -1104,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="N3">
-        <v>1368629.9833333339</v>
+        <v>1298178.2</v>
       </c>
       <c r="O3" t="s">
         <v>18</v>
@@ -1148,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="K4">
-        <v>490700</v>
+        <v>448000</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
@@ -1157,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="N4">
-        <v>1423140.6500000004</v>
+        <v>1357429.8666666674</v>
       </c>
       <c r="O4" t="s">
         <v>18</v>
@@ -1201,8 +1201,8 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <f>1090600/2</f>
-        <v>545300</v>
+        <f>896000/2</f>
+        <v>448000</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
@@ -1211,8 +1211,8 @@
         <v>4</v>
       </c>
       <c r="N5">
-        <f>2403236.95/2</f>
-        <v>1201618.4750000001</v>
+        <f>1850130.56666667/2</f>
+        <v>925065.28333333496</v>
       </c>
       <c r="O5" t="s">
         <v>18</v>
@@ -1256,8 +1256,8 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <f>1090600/2</f>
-        <v>545300</v>
+        <f t="shared" ref="K6:K7" si="0">896000/2</f>
+        <v>448000</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -1266,8 +1266,8 @@
         <v>5</v>
       </c>
       <c r="N6">
-        <f>2539809.95/2</f>
-        <v>1269904.9750000001</v>
+        <f>1966341.89999999/2</f>
+        <v>983170.94999999495</v>
       </c>
       <c r="O6" t="s">
         <v>18</v>
@@ -1311,8 +1311,8 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <f>1090600/2</f>
-        <v>545300</v>
+        <f t="shared" si="0"/>
+        <v>448000</v>
       </c>
       <c r="L7" t="s">
         <v>18</v>
@@ -1321,8 +1321,8 @@
         <v>6</v>
       </c>
       <c r="N7">
-        <f>2648781.78333334/2</f>
-        <v>1324390.8916666701</v>
+        <f>2096722.23333334/2</f>
+        <v>1048361.11666667</v>
       </c>
       <c r="O7" t="s">
         <v>18</v>
@@ -1366,8 +1366,8 @@
         <v>7</v>
       </c>
       <c r="K8" s="1">
-        <f>1871800/4</f>
-        <v>467950</v>
+        <f>1822800/4</f>
+        <v>455700</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
@@ -1376,8 +1376,8 @@
         <v>7</v>
       </c>
       <c r="N8">
-        <f>3114707.48333332/4</f>
-        <v>778676.87083332997</v>
+        <f>3078779.26666667/4</f>
+        <v>769694.81666666747</v>
       </c>
       <c r="O8" t="s">
         <v>18</v>
@@ -1421,8 +1421,8 @@
         <v>8</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" ref="K9:K10" si="0">1871800/4</f>
-        <v>467950</v>
+        <f t="shared" ref="K9:K10" si="1">1822800/4</f>
+        <v>455700</v>
       </c>
       <c r="L9" t="s">
         <v>18</v>
@@ -1431,8 +1431,8 @@
         <v>8</v>
       </c>
       <c r="N9">
-        <f>3324475.48333331/4</f>
-        <v>831118.87083332753</v>
+        <f>3286375.93333333/4</f>
+        <v>821593.98333333246</v>
       </c>
       <c r="O9" t="s">
         <v>18</v>
@@ -1476,8 +1476,8 @@
         <v>9</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="0"/>
-        <v>467950</v>
+        <f t="shared" si="1"/>
+        <v>455700</v>
       </c>
       <c r="L10" t="s">
         <v>18</v>
@@ -1486,8 +1486,8 @@
         <v>9</v>
       </c>
       <c r="N10">
-        <f>3549490.98333333/4</f>
-        <v>887372.74583333253</v>
+        <f>3487821.1/4</f>
+        <v>871955.27500000002</v>
       </c>
       <c r="O10" t="s">
         <v>18</v>

--- a/data/input_operation/OperationScenario_Component_Behavior.xlsx
+++ b/data/input_operation/OperationScenario_Component_Behavior.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevanskorna/PycharmProjects/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FC7848-2AD1-534E-9772-C27B30BE48B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1098A1B5-E941-0442-8267-1BF6A0EBCD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="-19540" windowWidth="25340" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10720" yWindow="-28300" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Beh" sheetId="1" r:id="rId1"/>
@@ -941,7 +941,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="P22" sqref="P22:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -953,6 +953,7 @@
     <col min="6" max="6" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1042,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>448000</v>
+        <v>1222000</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
@@ -1051,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>1230954.866666666</v>
+        <v>1425086.5000000023</v>
       </c>
       <c r="O2" t="s">
         <v>18</v>
@@ -1095,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="K3">
-        <v>448000</v>
+        <v>1222000</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
@@ -1104,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="N3">
-        <v>1298178.2</v>
+        <v>1528537.3333333319</v>
       </c>
       <c r="O3" t="s">
         <v>18</v>
@@ -1148,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="K4">
-        <v>448000</v>
+        <v>1222000</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
@@ -1157,7 +1158,7 @@
         <v>3</v>
       </c>
       <c r="N4">
-        <v>1357429.8666666674</v>
+        <v>1639089.8333333335</v>
       </c>
       <c r="O4" t="s">
         <v>18</v>
@@ -1201,8 +1202,7 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <f>896000/2</f>
-        <v>448000</v>
+        <v>1281000</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
@@ -1211,8 +1211,8 @@
         <v>4</v>
       </c>
       <c r="N5">
-        <f>1850130.56666667/2</f>
-        <v>925065.28333333496</v>
+        <f>2248139.667/2</f>
+        <v>1124069.8334999999</v>
       </c>
       <c r="O5" t="s">
         <v>18</v>
@@ -1256,8 +1256,7 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K7" si="0">896000/2</f>
-        <v>448000</v>
+        <v>1281000</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -1266,8 +1265,8 @@
         <v>5</v>
       </c>
       <c r="N6">
-        <f>1966341.89999999/2</f>
-        <v>983170.94999999495</v>
+        <f>2469891.5/2</f>
+        <v>1234945.75</v>
       </c>
       <c r="O6" t="s">
         <v>18</v>
@@ -1311,8 +1310,7 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>448000</v>
+        <v>1281000</v>
       </c>
       <c r="L7" t="s">
         <v>18</v>
@@ -1321,8 +1319,8 @@
         <v>6</v>
       </c>
       <c r="N7">
-        <f>2096722.23333334/2</f>
-        <v>1048361.11666667</v>
+        <f>2666521.333/2</f>
+        <v>1333260.6665000001</v>
       </c>
       <c r="O7" t="s">
         <v>18</v>
@@ -1366,8 +1364,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="1">
-        <f>1822800/4</f>
-        <v>455700</v>
+        <v>1303000</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
@@ -1376,8 +1373,8 @@
         <v>7</v>
       </c>
       <c r="N8">
-        <f>3078779.26666667/4</f>
-        <v>769694.81666666747</v>
+        <f>3754786.55/4</f>
+        <v>938696.63749999995</v>
       </c>
       <c r="O8" t="s">
         <v>18</v>
@@ -1421,8 +1418,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" ref="K9:K10" si="1">1822800/4</f>
-        <v>455700</v>
+        <v>1303000</v>
       </c>
       <c r="L9" t="s">
         <v>18</v>
@@ -1431,8 +1427,8 @@
         <v>8</v>
       </c>
       <c r="N9">
-        <f>3286375.93333333/4</f>
-        <v>821593.98333333246</v>
+        <f>4024730.217/4</f>
+        <v>1006182.55425</v>
       </c>
       <c r="O9" t="s">
         <v>18</v>
@@ -1476,8 +1472,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
-        <v>455700</v>
+        <v>1303000</v>
       </c>
       <c r="L10" t="s">
         <v>18</v>
@@ -1486,8 +1481,8 @@
         <v>9</v>
       </c>
       <c r="N10">
-        <f>3487821.1/4</f>
-        <v>871955.27500000002</v>
+        <f>4323314.883/4</f>
+        <v>1080828.7207500001</v>
       </c>
       <c r="O10" t="s">
         <v>18</v>
